--- a/Docs/Tarea5-6/TP-MOD0.xlsx
+++ b/Docs/Tarea5-6/TP-MOD0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49b8cc00b261ecde/JP/TEC/MAESTRIA/IV_Cuatri/Verificacion y Validacion de Software/Tarea5-6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicsma2409\Desktop\Maestria\1er Cuatrimestre 2025\Verificacion\ProyectoFinal\Repo_SSH\Docs\Tarea5-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{35845B8C-C872-48DE-B4C3-878125A65419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A051987-2183-4A58-BF1D-45383AFB9112}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B33B5-572F-4504-800E-3514601EE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso de Prueba" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Valor obtenido</t>
-  </si>
-  <si>
-    <t>Los pasos de verificación tienen la forma: Verificar que &lt;variable de salida&gt; es igual que &lt;valor esperado.&gt;</t>
   </si>
   <si>
     <t>Ejecutado por</t>
@@ -212,9 +209,6 @@
     <t>Pasó</t>
   </si>
   <si>
-    <t>Modo Activo: ARMADO. MODO 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cubrir la funcionalidad del Modo 0 - Modos de Operación </t>
   </si>
   <si>
@@ -237,16 +231,6 @@
     <t>Este paso determinará el valor límite de la batería de respaldo en caso de falla eléctrica</t>
   </si>
   <si>
-    <t>Ingresar al Modo 0 utilizando la contraseña "#123456*"
-Verificar que el indicador "Bocina" y "Alerta" se encuentra apagado (no Color)
-Nota: Caso inicial, comprobando que el sistema no encuentra errores iniciales. 
-La bocina se encuentra implementada mediante un indicador. En caso de implementar el sistema, este indicador será el encargado de cambiar la señal discreta que comunica con la Bocina real.</t>
-  </si>
-  <si>
-    <t>SW-ID-33
-SW-ID-57</t>
-  </si>
-  <si>
     <t xml:space="preserve">Caso inicial, comprobando que el sistema no 
 encuentra errores iniciales. </t>
   </si>
@@ -267,9 +251,6 @@
   </si>
   <si>
     <t>Seleccionar el sensor 2</t>
-  </si>
-  <si>
-    <t>Activa bocina y señal de alerta S2 en rojo</t>
   </si>
   <si>
     <t>Para seleccionar el sensor 2, darle click al botón S2</t>
@@ -304,9 +285,6 @@
     <t>En este archivo el software almacena los mensajes formateados ya preparados para ser enviados via GSM</t>
   </si>
   <si>
-    <t>Verificar que la entrada del mensaje formateado posee una entrada para el Tipo de Alerta con un valor igual a "Armado Sensor".</t>
-  </si>
-  <si>
     <t>Verificar que la entrada del mensaje formateado posee una entrada para el Usuario Activo con un valor igual a "1".</t>
   </si>
   <si>
@@ -316,18 +294,12 @@
     <t>TP-MP0-005</t>
   </si>
   <si>
-    <t>Alert_Type: "Alarma Sensor"</t>
-  </si>
-  <si>
     <t>usr_Active: "1"</t>
   </si>
   <si>
     <t>Alerted_snr: "S2"</t>
   </si>
   <si>
-    <t>Alerta presente</t>
-  </si>
-  <si>
     <t>Verificar que la entrada del mensaje formateado posee una entrada para el Sensor alertado con un valor igual a "S2".</t>
   </si>
   <si>
@@ -347,6 +319,81 @@
   </si>
   <si>
     <t>Mensaje GSM formateado con Numero de sensor "S2"</t>
+  </si>
+  <si>
+    <t>Ingresar al Modo 0 utilizando la contraseña "#123456*"</t>
+  </si>
+  <si>
+    <t>BOCINA APAGADA</t>
+  </si>
+  <si>
+    <t>Verificar que el indicador "Bocina" se encuentra apagado (no Color)
+Nota: Caso inicial, comprobando que el sistema no encuentra errores iniciales. 
+La bocina se encuentra implementada mediante un indicador. En caso de implementar el sistema, este indicador será el encargado de cambiar la señal discreta que comunica con la Bocina real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que el indicador "Alerta" se encuentra apagado (no Color)
+Nota: Caso inicial, comprobando que el sistema no encuentra errores iniciales. </t>
+  </si>
+  <si>
+    <t>ALERTA APAGADA</t>
+  </si>
+  <si>
+    <t>Verificar que el indicador "Bocina" se encuentra encendido (Color Rojo) debido a la activación del Sensor S2
+Nota: Caso inicial, comprobando que el sistema no encuentra errores iniciales. 
+La bocina se encuentra implementada mediante un indicador. En caso de implementar el sistema, este indicador será el encargado de cambiar la señal discreta que comunica con la Bocina real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que el indicador "Alerta" se encuentra encendido (Color Rojo) debido a la activación del Sensor S2
+Nota: Caso inicial, comprobando que el sistema no encuentra errores iniciales. </t>
+  </si>
+  <si>
+    <t>BOCINA ENCENDIDA</t>
+  </si>
+  <si>
+    <t>ALERTA ENCENDIDA</t>
+  </si>
+  <si>
+    <t>TP-MP0-006</t>
+  </si>
+  <si>
+    <t>TP-MP0-007</t>
+  </si>
+  <si>
+    <t>Falló</t>
+  </si>
+  <si>
+    <t>Verificar que la entrada del mensaje formateado posee una entrada para el Modo Sistema con un valor igual a "Modo 0".</t>
+  </si>
+  <si>
+    <t>NO HAY CAMPO MODO SISTEMA</t>
+  </si>
+  <si>
+    <t>SW-ID-33
+SW-ID-34
+SW-ID-57</t>
+  </si>
+  <si>
+    <t>Verificar que el Modo Activo es diferente de "ARMADO. MODO 0"</t>
+  </si>
+  <si>
+    <t>Verificar que el Modo Activo es igual a "ARMADO. MODO 0"</t>
+  </si>
+  <si>
+    <t>TP-MP0-000</t>
+  </si>
+  <si>
+    <t>MODO ACTIVO ARMADO MODO 0</t>
+  </si>
+  <si>
+    <t>SW-ID-57</t>
+  </si>
+  <si>
+    <t>SW-ID-34
+SW-ID-58</t>
+  </si>
+  <si>
+    <t>Operación Normal Armado Modo 0</t>
   </si>
 </sst>
 </file>
@@ -540,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -578,6 +625,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,8 +646,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,8 +692,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B12:F24" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="B12:F24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B12:F34" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="B12:F34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Acción" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{B14ED228-12A3-41C7-8F8D-4E780E61FC73}" name="ID" dataDxfId="3"/>
@@ -936,13 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -1022,61 +1078,61 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="18" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="16"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1098,226 +1154,301 @@
       <c r="L11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Normal, Robustez"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Valor de frontera, Clase Equivalencia, Maq. Estados Finitos, Expresión Booleana, Otro"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1328,13 +1459,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
@@ -1349,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -1376,10 +1507,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,7 +1518,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="7"/>
     </row>
@@ -1396,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,15 +1568,15 @@
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1454,252 +1585,373 @@
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <f t="shared" ref="A15:A24" si="0">1+A14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="A16:A34" si="0">1+A15</f>
+        <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <f t="shared" ref="A18:A34" si="1">1+A17</f>
+        <v>4</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>4</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <f t="shared" ref="A20:A34" si="2">1+A19</f>
         <v>5</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>5</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <f t="shared" ref="A22:A34" si="3">1+A21</f>
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <f t="shared" ref="A24:A34" si="4">1+A23</f>
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <f t="shared" ref="A26:A34" si="5">1+A25</f>
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f t="shared" ref="A28:A34" si="6">1+A27</f>
+        <v>9</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="13" t="s">
+      <c r="D29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <f t="shared" ref="A30:A34" si="7">1+A29</f>
+        <v>10</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>10</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <f t="shared" ref="A32:A34" si="8">1+A31</f>
+        <v>11</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>11</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <f t="shared" ref="A34" si="9">1+A33</f>
+        <v>12</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
+      <c r="E34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E27" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E37" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pasó, Falló"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Docs/Tarea5-6/TP-MOD0.xlsx
+++ b/Docs/Tarea5-6/TP-MOD0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicsma2409\Desktop\Maestria\1er Cuatrimestre 2025\Verificacion\ProyectoFinal\Repo_SSH\Docs\Tarea5-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49b8cc00b261ecde/JP/TEC/MAESTRIA/IV_Cuatri/Verificacion y Validacion de Software/Tarea5-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B33B5-572F-4504-800E-3514601EE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{586B33B5-572F-4504-800E-3514601EE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA88B0E-1A2D-4CE0-9317-11A0C08582BB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso de Prueba" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -229,10 +229,6 @@
   </si>
   <si>
     <t>Este paso determinará el valor límite de la batería de respaldo en caso de falla eléctrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso inicial, comprobando que el sistema no 
-encuentra errores iniciales. </t>
   </si>
   <si>
     <t>Expresión Booleana</t>
@@ -386,14 +382,29 @@
     <t>MODO ACTIVO ARMADO MODO 0</t>
   </si>
   <si>
-    <t>SW-ID-57</t>
-  </si>
-  <si>
     <t>SW-ID-34
 SW-ID-58</t>
   </si>
   <si>
     <t>Operación Normal Armado Modo 0</t>
+  </si>
+  <si>
+    <t>Verificar que dentro de "gsm_alerts.txt" el mensaje escrito para el sensor alertado sea diferente a "Alerted_snr": "S2"</t>
+  </si>
+  <si>
+    <t>Si esta escrito "Alerted_snr": "S2", se puede borrar el contenido de "gsm_alerts.txt" para conttinuar con la prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso inicial, comprobando que el sistema no encuentra errores iniciales. </t>
+  </si>
+  <si>
+    <t>Comprobación que no hay msjs que conduzcan a falsos positivos en "gsm_alerts.txt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificación de caso de bocina activa (color rojo) debido a un sensor es activado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificación de caso de alerta activa (color rojo) debido a un sensor es activado </t>
   </si>
 </sst>
 </file>
@@ -470,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -583,6 +594,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -628,6 +661,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,14 +682,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,8 +725,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B12:F34" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="B12:F34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B12:F32" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="B12:F32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Acción" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{B14ED228-12A3-41C7-8F8D-4E780E61FC73}" name="ID" dataDxfId="3"/>
@@ -994,15 +1027,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D18"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
@@ -1078,61 +1111,61 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="16" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1154,68 +1187,76 @@
       <c r="L11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="22"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1223,40 +1264,40 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="M14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1264,79 +1305,99 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="K15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>43</v>
@@ -1345,7 +1406,7 @@
         <v>43</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>43</v>
@@ -1354,28 +1415,28 @@
     </row>
     <row r="18" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>43</v>
@@ -1384,7 +1445,7 @@
         <v>43</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>43</v>
@@ -1393,28 +1454,28 @@
     </row>
     <row r="19" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>43</v>
@@ -1423,7 +1484,7 @@
         <v>43</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>43</v>
@@ -1432,23 +1493,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Normal, Robustez"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Valor de frontera, Clase Equivalencia, Maq. Estados Finitos, Expresión Booleana, Otro"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1459,20 +1520,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,7 +1631,9 @@
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
@@ -1587,7 +1650,9 @@
       <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D14" s="9" t="s">
         <v>43</v>
       </c>
@@ -1598,12 +1663,15 @@
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>2</v>
+        <f t="shared" ref="A15:A32" si="0">1+A14</f>
+        <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
@@ -1614,13 +1682,15 @@
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <f t="shared" ref="A16:A34" si="0">1+A15</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" s="9" t="s">
         <v>43</v>
       </c>
@@ -1631,327 +1701,343 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <f t="shared" ref="A18:A34" si="1">1+A17</f>
-        <v>4</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <f t="shared" ref="A20:A34" si="2">1+A19</f>
-        <v>5</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>5</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <f t="shared" ref="A22:A34" si="3">1+A21</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>6</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <f t="shared" ref="A24:A34" si="4">1+A23</f>
-        <v>7</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <f t="shared" ref="A26:A34" si="5">1+A25</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <f t="shared" ref="A28:A34" si="6">1+A27</f>
-        <v>9</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>9</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="9" t="s">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <f t="shared" ref="A30:A34" si="7">1+A29</f>
-        <v>10</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="D31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>10</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <f t="shared" ref="A32:A34" si="8">1+A31</f>
-        <v>11</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>11</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <f t="shared" ref="A34" si="9">1+A33</f>
-        <v>12</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E37" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E35" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pasó, Falló"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Docs/Tarea5-6/TP-MOD0.xlsx
+++ b/Docs/Tarea5-6/TP-MOD0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49b8cc00b261ecde/JP/TEC/MAESTRIA/IV_Cuatri/Verificacion y Validacion de Software/Tarea5-6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicsma2409\Desktop\Maestria\1er Cuatrimestre 2025\Verificacion\ProyectoFinal\Repo_SSH\Docs\Tarea5-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{586B33B5-572F-4504-800E-3514601EE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA88B0E-1A2D-4CE0-9317-11A0C08582BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1CD2EF-EE87-43C1-A344-4B921E8D75FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso de Prueba" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -370,9 +370,6 @@
 SW-ID-57</t>
   </si>
   <si>
-    <t>Verificar que el Modo Activo es diferente de "ARMADO. MODO 0"</t>
-  </si>
-  <si>
     <t>Verificar que el Modo Activo es igual a "ARMADO. MODO 0"</t>
   </si>
   <si>
@@ -389,12 +386,6 @@
     <t>Operación Normal Armado Modo 0</t>
   </si>
   <si>
-    <t>Verificar que dentro de "gsm_alerts.txt" el mensaje escrito para el sensor alertado sea diferente a "Alerted_snr": "S2"</t>
-  </si>
-  <si>
-    <t>Si esta escrito "Alerted_snr": "S2", se puede borrar el contenido de "gsm_alerts.txt" para conttinuar con la prueba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Caso inicial, comprobando que el sistema no encuentra errores iniciales. </t>
   </si>
   <si>
@@ -405,6 +396,18 @@
   </si>
   <si>
     <t xml:space="preserve">Verificación de caso de alerta activa (color rojo) debido a un sensor es activado </t>
+  </si>
+  <si>
+    <t>Asegurar que dentro de "gsm_alerts.txt" el mensaje escrito para el sensor alertado sea diferente a "Alerted_snr": "S2"</t>
+  </si>
+  <si>
+    <t>Si esta escrito "Alerted_snr": "S2", se puede borrar el contenido de "gsm_alerts.txt" para continuar con la prueba</t>
+  </si>
+  <si>
+    <t>Asegurar que el Modo Activo es diferente de "ARMADO. MODO 0"</t>
+  </si>
+  <si>
+    <t>Esto indica que el sistema se encuentra desarmado.</t>
   </si>
 </sst>
 </file>
@@ -664,6 +667,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,12 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,11 +1030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -1111,61 +1114,61 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="17" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="18"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1187,17 +1190,17 @@
       <c r="L11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>50</v>
@@ -1226,7 +1229,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -1235,7 +1238,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>67</v>
@@ -1264,7 +1267,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>73</v>
@@ -1276,7 +1279,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>67</v>
@@ -1305,10 +1308,10 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -1317,7 +1320,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>67</v>
@@ -1347,7 +1350,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -1356,7 +1359,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>67</v>
@@ -1391,7 +1394,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>67</v>
@@ -1430,7 +1433,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>67</v>
@@ -1469,7 +1472,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>67</v>
@@ -1493,16 +1496,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
@@ -1522,11 +1525,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
@@ -1642,7 +1645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>1+A13</f>
         <v>2</v>
@@ -1680,7 +1683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1705,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
@@ -1714,7 +1717,9 @@
         <v>43</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1739,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>43</v>
@@ -1749,7 +1754,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,13 +1780,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>57</v>
@@ -1978,11 +1983,11 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C32" t="s">
@@ -2036,7 +2041,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E35" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pasó, Falló"</formula1>
     </dataValidation>
